--- a/data/trans_orig/P36B03_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B03_2023-Provincia-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+          <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,3%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,69%</t>
+          <t>83,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>84,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>90,93%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,51%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,57%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>59,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>64,75%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>69,58%</t>
+          <t>69,53%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>89,74%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>10,3%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,79%</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>36,93%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>56,19%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>66,02%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>67,64%</t>
+          <t>67,65%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,27%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>80,38%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>85,94%</t>
+          <t>85,96%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,63%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>78,14%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>85,86%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>90,64%</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -4344,12 +4344,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,88%</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>79,88%</t>
+          <t>80,07%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,44%</t>
         </is>
       </c>
     </row>
